--- a/bases/voto2021.xlsx
+++ b/bases/voto2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cincuenta\SV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arturo/Documents/GitHub/arturomaldonado.github.io/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761BB11-D0DC-47A3-8A52-BB5A16430651}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89510865-49A1-C14D-B338-BE63962D4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{723A9531-B34C-4361-B3F5-4DFC2977AD96}"/>
+    <workbookView xWindow="7620" yWindow="980" windowWidth="21820" windowHeight="17020" xr2:uid="{723A9531-B34C-4361-B3F5-4DFC2977AD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -110,12 +110,6 @@
     <t>UCAYALI</t>
   </si>
   <si>
-    <t>VotoPL</t>
-  </si>
-  <si>
-    <t>VotoFP</t>
-  </si>
-  <si>
     <t>Pobreza2020</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Analfabetismo</t>
+  </si>
+  <si>
+    <t>VotoPL_1</t>
+  </si>
+  <si>
+    <t>VotoFP_1</t>
   </si>
 </sst>
 </file>
@@ -515,49 +515,49 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>26.1</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="D2">
         <v>704</v>
@@ -578,15 +578,15 @@
         <v>8.0348132955024649</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>58.1</v>
+        <v>23.4</v>
       </c>
       <c r="C3">
-        <v>41.9</v>
+        <v>14.3</v>
       </c>
       <c r="D3">
         <v>755</v>
@@ -607,15 +607,15 @@
         <v>9.0116889602642782</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80.5</v>
+        <v>53.4</v>
       </c>
       <c r="C4">
-        <v>19.5</v>
+        <v>9.4</v>
       </c>
       <c r="D4">
         <v>697</v>
@@ -636,15 +636,15 @@
         <v>12.630720874121621</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D5">
         <v>1028</v>
@@ -665,15 +665,15 @@
         <v>3.1306865844505638</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>7.1</v>
       </c>
       <c r="D6">
         <v>710</v>
@@ -694,15 +694,15 @@
         <v>11.52833968628536</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>68.7</v>
+        <v>44.9</v>
       </c>
       <c r="C7">
-        <v>31.3</v>
+        <v>10.6</v>
       </c>
       <c r="D7">
         <v>632</v>
@@ -723,15 +723,15 @@
         <v>12.135443058681924</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32.4</v>
+        <v>6.4</v>
       </c>
       <c r="C8">
-        <v>67.599999999999994</v>
+        <v>15.2</v>
       </c>
       <c r="D8">
         <v>782</v>
@@ -752,15 +752,15 @@
         <v>1.8730342706563603</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>82.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C9">
-        <v>17.100000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
         <v>651</v>
@@ -781,15 +781,15 @@
         <v>9.8595313301411238</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>87.3</v>
+        <v>54.2</v>
       </c>
       <c r="C10">
-        <v>12.7</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
         <v>503</v>
@@ -810,15 +810,15 @@
         <v>12.496497922113592</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>64.400000000000006</v>
+        <v>37.6</v>
       </c>
       <c r="C11">
-        <v>35.6</v>
+        <v>11.1</v>
       </c>
       <c r="D11">
         <v>652</v>
@@ -839,15 +839,15 @@
         <v>13.569498007721405</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>46.8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>53.2</v>
+        <v>15.3</v>
       </c>
       <c r="D12">
         <v>1002</v>
@@ -868,15 +868,15 @@
         <v>2.3039358682706363</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>55.1</v>
+        <v>22.9</v>
       </c>
       <c r="C13">
-        <v>44.9</v>
+        <v>13.9</v>
       </c>
       <c r="D13">
         <v>764</v>
@@ -897,15 +897,15 @@
         <v>7.0204200884776906</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40.5</v>
+        <v>11.5</v>
       </c>
       <c r="C14">
-        <v>59.5</v>
+        <v>16.8</v>
       </c>
       <c r="D14">
         <v>849</v>
@@ -926,15 +926,15 @@
         <v>5.0900826938140131</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41.8</v>
+        <v>12.9</v>
       </c>
       <c r="C15">
-        <v>58.2</v>
+        <v>21.4</v>
       </c>
       <c r="D15">
         <v>879</v>
@@ -955,15 +955,15 @@
         <v>5.2418786412068377</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>34.799999999999997</v>
+        <v>7.8</v>
       </c>
       <c r="C16">
-        <v>65.2</v>
+        <v>14.2</v>
       </c>
       <c r="D16">
         <v>1022</v>
@@ -984,15 +984,15 @@
         <v>2.2978909167723534</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>48.2</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>51.8</v>
+        <v>16.7</v>
       </c>
       <c r="D17">
         <v>628</v>
@@ -1013,15 +1013,15 @@
         <v>6.4257112334430655</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>71.7</v>
+        <v>37.1</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>11.3</v>
       </c>
       <c r="D18">
         <v>848</v>
@@ -1042,15 +1042,15 @@
         <v>3.5204215160154266</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>74.5</v>
+        <v>34.4</v>
       </c>
       <c r="C19">
-        <v>25.5</v>
+        <v>4.7</v>
       </c>
       <c r="D19">
         <v>1218</v>
@@ -1071,15 +1071,15 @@
         <v>4.3073255865818076</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>66.599999999999994</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C20">
-        <v>33.4</v>
+        <v>12.6</v>
       </c>
       <c r="D20">
         <v>594</v>
@@ -1100,15 +1100,15 @@
         <v>5.9577198457307698</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>38.4</v>
+        <v>10.1</v>
       </c>
       <c r="C21">
-        <v>61.6</v>
+        <v>24.8</v>
       </c>
       <c r="D21">
         <v>757</v>
@@ -1129,15 +1129,15 @@
         <v>7.1036912619080681</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>87.4</v>
+        <v>47.5</v>
       </c>
       <c r="C22">
-        <v>12.6</v>
+        <v>2.8</v>
       </c>
       <c r="D22">
         <v>633</v>
@@ -1158,15 +1158,15 @@
         <v>8.6342222488512963</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>58.9</v>
+        <v>21.4</v>
       </c>
       <c r="C23">
-        <v>41.1</v>
+        <v>14.9</v>
       </c>
       <c r="D23">
         <v>740</v>
@@ -1187,15 +1187,15 @@
         <v>7.3486763619471009</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>75.400000000000006</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C24">
-        <v>24.6</v>
+        <v>4.8</v>
       </c>
       <c r="D24">
         <v>879</v>
@@ -1216,15 +1216,15 @@
         <v>3.2951192944739032</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>34.1</v>
+        <v>7.7</v>
       </c>
       <c r="C25">
-        <v>65.900000000000006</v>
+        <v>37.1</v>
       </c>
       <c r="D25">
         <v>835</v>
@@ -1245,15 +1245,15 @@
         <v>3.4920291977893863</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>49.7</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>50.3</v>
+        <v>21.5</v>
       </c>
       <c r="D26">
         <v>682</v>
@@ -1274,7 +1274,7 @@
         <v>4.7424988920022209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
       <c r="H29" s="4"/>
     </row>
